--- a/src/test/resources/excel/modem-upload.xlsx
+++ b/src/test/resources/excel/modem-upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyeong-gyo/Desktop/my-project/yglee-collecting/install/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2640ED6A-DA16-E44A-9552-DAC164D64C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7801774-509D-5E43-AEB4-3ED225206F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="1160" windowWidth="21040" windowHeight="17780" xr2:uid="{A8A6AF20-BB0A-4D4E-870F-A67461B342B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{A8A6AF20-BB0A-4D4E-870F-A67461B342B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
   <si>
     <t>modemNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,288 @@
   <si>
     <t>삼성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imei-129</t>
+  </si>
+  <si>
+    <t>imei-130</t>
+  </si>
+  <si>
+    <t>imei-131</t>
+  </si>
+  <si>
+    <t>imei-132</t>
+  </si>
+  <si>
+    <t>imei-133</t>
+  </si>
+  <si>
+    <t>imei-134</t>
+  </si>
+  <si>
+    <t>imei-135</t>
+  </si>
+  <si>
+    <t>imei-136</t>
+  </si>
+  <si>
+    <t>imei-137</t>
+  </si>
+  <si>
+    <t>imei-138</t>
+  </si>
+  <si>
+    <t>imei-139</t>
+  </si>
+  <si>
+    <t>imei-140</t>
+  </si>
+  <si>
+    <t>imei-141</t>
+  </si>
+  <si>
+    <t>imei-142</t>
+  </si>
+  <si>
+    <t>imei-143</t>
+  </si>
+  <si>
+    <t>imei-144</t>
+  </si>
+  <si>
+    <t>imei-145</t>
+  </si>
+  <si>
+    <t>imei-146</t>
+  </si>
+  <si>
+    <t>imei-147</t>
+  </si>
+  <si>
+    <t>imei-148</t>
+  </si>
+  <si>
+    <t>imei-149</t>
+  </si>
+  <si>
+    <t>imei-150</t>
+  </si>
+  <si>
+    <t>imei-151</t>
+  </si>
+  <si>
+    <t>imei-152</t>
+  </si>
+  <si>
+    <t>imei-153</t>
+  </si>
+  <si>
+    <t>imei-154</t>
+  </si>
+  <si>
+    <t>imei-155</t>
+  </si>
+  <si>
+    <t>imei-156</t>
+  </si>
+  <si>
+    <t>imei-157</t>
+  </si>
+  <si>
+    <t>imei-158</t>
+  </si>
+  <si>
+    <t>imei-159</t>
+  </si>
+  <si>
+    <t>imei-160</t>
+  </si>
+  <si>
+    <t>imei-161</t>
+  </si>
+  <si>
+    <t>imei-162</t>
+  </si>
+  <si>
+    <t>imei-163</t>
+  </si>
+  <si>
+    <t>imei-164</t>
+  </si>
+  <si>
+    <t>imei-165</t>
+  </si>
+  <si>
+    <t>imei-166</t>
+  </si>
+  <si>
+    <t>imei-167</t>
+  </si>
+  <si>
+    <t>imei-168</t>
+  </si>
+  <si>
+    <t>imei-169</t>
+  </si>
+  <si>
+    <t>imei-170</t>
+  </si>
+  <si>
+    <t>imei-171</t>
+  </si>
+  <si>
+    <t>imei-172</t>
+  </si>
+  <si>
+    <t>imei-173</t>
+  </si>
+  <si>
+    <t>imei-174</t>
+  </si>
+  <si>
+    <t>imei-175</t>
+  </si>
+  <si>
+    <t>imei-176</t>
+  </si>
+  <si>
+    <t>imei-177</t>
+  </si>
+  <si>
+    <t>imei-178</t>
+  </si>
+  <si>
+    <t>imei-179</t>
+  </si>
+  <si>
+    <t>imei-180</t>
+  </si>
+  <si>
+    <t>imei-181</t>
+  </si>
+  <si>
+    <t>imei-182</t>
+  </si>
+  <si>
+    <t>imei-183</t>
+  </si>
+  <si>
+    <t>imei-184</t>
+  </si>
+  <si>
+    <t>imei-185</t>
+  </si>
+  <si>
+    <t>imei-186</t>
+  </si>
+  <si>
+    <t>imei-187</t>
+  </si>
+  <si>
+    <t>imei-188</t>
+  </si>
+  <si>
+    <t>imei-189</t>
+  </si>
+  <si>
+    <t>imei-190</t>
+  </si>
+  <si>
+    <t>imei-191</t>
+  </si>
+  <si>
+    <t>imei-192</t>
+  </si>
+  <si>
+    <t>imei-193</t>
+  </si>
+  <si>
+    <t>imei-194</t>
+  </si>
+  <si>
+    <t>imei-195</t>
+  </si>
+  <si>
+    <t>imei-196</t>
+  </si>
+  <si>
+    <t>imei-197</t>
+  </si>
+  <si>
+    <t>imei-198</t>
+  </si>
+  <si>
+    <t>imei-199</t>
+  </si>
+  <si>
+    <t>imei-200</t>
+  </si>
+  <si>
+    <t>imei-201</t>
+  </si>
+  <si>
+    <t>imei-202</t>
+  </si>
+  <si>
+    <t>imei-203</t>
+  </si>
+  <si>
+    <t>imei-204</t>
+  </si>
+  <si>
+    <t>imei-205</t>
+  </si>
+  <si>
+    <t>imei-206</t>
+  </si>
+  <si>
+    <t>imei-207</t>
+  </si>
+  <si>
+    <t>imei-208</t>
+  </si>
+  <si>
+    <t>imei-209</t>
+  </si>
+  <si>
+    <t>imei-210</t>
+  </si>
+  <si>
+    <t>imei-211</t>
+  </si>
+  <si>
+    <t>imei-212</t>
+  </si>
+  <si>
+    <t>imei-213</t>
+  </si>
+  <si>
+    <t>imei-214</t>
+  </si>
+  <si>
+    <t>imei-215</t>
+  </si>
+  <si>
+    <t>imei-216</t>
+  </si>
+  <si>
+    <t>imei-217</t>
+  </si>
+  <si>
+    <t>imei-218</t>
+  </si>
+  <si>
+    <t>imei-219</t>
+  </si>
+  <si>
+    <t>imei-220</t>
+  </si>
+  <si>
+    <t>imei-221</t>
+  </si>
+  <si>
+    <t>imei-222</t>
   </si>
 </sst>
 </file>
@@ -438,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C939720-1342-F44B-974B-0500960D5EE1}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -530,6 +812,1040 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>2111914</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>2111915</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>2111916</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>2111917</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>2111918</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>2111919</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>2111920</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>2111921</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>2111922</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>2111923</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>2111924</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>2111925</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>2111926</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>2111927</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>2111928</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>2111929</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>2111930</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>2111931</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>2111932</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>2111933</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>2111934</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>2111935</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>2111936</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>2111937</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>2111938</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>2111939</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>2111940</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>2111941</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>2111942</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>2111943</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>2111944</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>2111945</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>2111946</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>2111947</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>2111948</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>2111949</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>2111950</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>2111951</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>2111952</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>2111953</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>2111954</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>2111955</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>2111956</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>2111957</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>2111958</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>2111959</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>2111960</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>2111961</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>2111962</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>2111963</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>2111964</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>2111965</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>2111966</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>2111967</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>2111968</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>2111969</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>2111970</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>2111971</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>2111972</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>2111973</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>2111974</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>2111975</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>2111976</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>2111977</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>2111978</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>2111979</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>2111980</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>2111981</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>2111982</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>2111983</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>2111984</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>2111985</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>2111986</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>2111987</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>2111988</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>2111989</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>2111990</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>2111991</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>2111992</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>2111993</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>2111994</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>2111995</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>2111996</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>2111997</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>2111998</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>2111999</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>2112000</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>2112001</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>2112002</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>2112003</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>2112004</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>2112005</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>2112006</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>2112007</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
